--- a/biology/Botanique/Relictithismia/Relictithismia.xlsx
+++ b/biology/Botanique/Relictithismia/Relictithismia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Relictithismia kimotsukiensis est un genre monotypique de la famille des Thismiaceae (parfois intégrée à la famille des Burmanniaceae).
-Relictithismia kimotsukiensis, connue sous le nom vernaculaire de « chandelier du blaireau », est la seule espèce connue attribuée à ce genre[1],[2],[3],[4],[5],[6].
-Cette plante, qui est mycohétérotrophe[2],[4],[5], est actuellement classée comme en danger critique d’extinction selon les critères de l’UICN[1]. On en compte à peine 50 individus[2],[5],[6].
-Le genre Relictithismia se distingue de l’espèce proche Haplothismia (en) par plusieurs caractéristiques. En effet, Relictithismia possède des fleurs solitaires, avec un anneau et des anthères largement séparées[2],[3],[4],[5]. À l’inverse, chez Haplothismia, on observe de 2 à 6 fleurs portées sur des pseudoracemes, sans anneau[2],[3],[4],[5].
+Relictithismia kimotsukiensis, connue sous le nom vernaculaire de « chandelier du blaireau », est la seule espèce connue attribuée à ce genre.
+Cette plante, qui est mycohétérotrophe est actuellement classée comme en danger critique d’extinction selon les critères de l’UICN. On en compte à peine 50 individus.
+Le genre Relictithismia se distingue de l’espèce proche Haplothismia (en) par plusieurs caractéristiques. En effet, Relictithismia possède des fleurs solitaires, avec un anneau et des anthères largement séparées. À l’inverse, chez Haplothismia, on observe de 2 à 6 fleurs portées sur des pseudoracemes, sans anneau.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Relictithismia est formé à partir de deux mots latins : relictus, qui signifie « abandonné », et Thismia, un nom générique. Par ailleurs, l’appellation spécifique kimotsukiensis fait référence au lieu de découverte de l’espèce, à savoir le mont Kimotsuki[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Relictithismia est formé à partir de deux mots latins : relictus, qui signifie « abandonné », et Thismia, un nom générique. Par ailleurs, l’appellation spécifique kimotsukiensis fait référence au lieu de découverte de l’espèce, à savoir le mont Kimotsuki,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est uniquement identifiée dans la région spécifique des montagnes Kimotsuki, située dans la préfecture de Kagoshima, sur l’île de Kyūshū, au sud du Japon[1],[3],[4],[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est uniquement identifiée dans la région spécifique des montagnes Kimotsuki, située dans la préfecture de Kagoshima, sur l’île de Kyūshū, au sud du Japon.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Phénologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des spécimens en phase de floraison, ainsi que des spécimens portant des fruits non mûrs ont été repérés et collectés en juin[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des spécimens en phase de floraison, ainsi que des spécimens portant des fruits non mûrs ont été repérés et collectés en juin.
 </t>
         </is>
       </c>
